--- a/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20DEBB-F4AC-4B64-B1DC-2D903F687267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C103C3B-FF49-4AE6-BCFC-A15A7988E18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>string</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -249,51 +249,20 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>1;50000@10010046;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;100000@10010046;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;150000@10010046;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;200000@10010046;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;250000@10010046;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;50000@10010046;1@10000143;3@10010087;1</t>
+    <t>1;100000@1010034;5@1000022;1@1000018;10</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;100000@10010046;1@10000143;4@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;150000@1010034;5@1000023;1@1000018;20@1010033;1</t>
   </si>
   <si>
-    <t>1;150000@10010046;1@10000143;5@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;200000@1010034;5@1000023;1@1000018;20@1010033;1</t>
   </si>
   <si>
-    <t>1;250000@10010046;1@10000143;5@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;200000@1010034;10@1000024;2@1000018;30@1010002;1</t>
   </si>
   <si>
-    <t>1;200000@10010046;1@10000143;5@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010093;1@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000150;1@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000157;25@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;300000@1010034;10@1000024;2@1000018;30@1010002;1</t>
   </si>
 </sst>
 </file>
@@ -6441,7 +6410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6476,6 +6445,9 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="15" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="34" borderId="15" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1848">
@@ -8659,8 +8631,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8675,7 +8647,8 @@
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="15" width="14.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
-    <col min="17" max="19" width="14.125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="14.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="49.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8892,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L6" s="4">
         <v>220</v>
@@ -8904,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="4">
         <v>310</v>
@@ -8915,8 +8888,8 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>57</v>
+      <c r="S6" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8946,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L7" s="4">
         <v>220</v>
@@ -8969,8 +8942,8 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="12" t="s">
-        <v>57</v>
+      <c r="S7" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9000,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L8" s="4">
         <v>220</v>
@@ -9023,8 +8996,8 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="12" t="s">
-        <v>58</v>
+      <c r="S8" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9054,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L9" s="4">
         <v>220</v>
@@ -9066,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9" s="4">
         <v>310</v>
@@ -9077,8 +9050,8 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="12" t="s">
-        <v>59</v>
+      <c r="S9" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9086,11 +9059,11 @@
       <c r="C10" s="1">
         <v>10005</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
+      <c r="D10" s="4">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>46</v>
@@ -9108,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L10" s="4">
         <v>220</v>
@@ -9120,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="4">
         <v>310</v>
@@ -9131,8 +9104,8 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>59</v>
+      <c r="S10" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FC5BA-0FE5-4BB9-97AE-1F2E1FD84AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684DD1AA-58CB-4194-95CD-B21C07B63D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -133,15 +133,6 @@
     <t>第一章</t>
   </si>
   <si>
-    <t>1;100000@1010034;5@1000022;1@1000018;10</t>
-  </si>
-  <si>
-    <t>1;150000@1010034;5@1000023;1@1000018;20@1010033;1</t>
-  </si>
-  <si>
-    <t>1;200000@1010034;10@1000024;2@1000018;30@1010002;1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -202,12 +193,6 @@
     <t>第三章</t>
   </si>
   <si>
-    <t>1;200000@1010034;5@1000023;1@1000018;20@1010033;1</t>
-  </si>
-  <si>
-    <t>1;300000@1010034;10@1000024;2@1000018;30@1010002;1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -239,6 +224,51 @@
   </si>
   <si>
     <t>第五章</t>
+  </si>
+  <si>
+    <t>1;30000@1021008;1@1000018;5</t>
+  </si>
+  <si>
+    <t>1;50000@1022008;1@1000018;5</t>
+  </si>
+  <si>
+    <t>1;100000@1023008;1@1000018;5</t>
+  </si>
+  <si>
+    <t>1;100000@1024008;1@1000018;5</t>
+  </si>
+  <si>
+    <t>1;100000@1025008;1@1000018;5</t>
+  </si>
+  <si>
+    <t>1;50000@1021008;1@1000018;5@1000022;1</t>
+  </si>
+  <si>
+    <t>1;100000@1022008;1@1000018;5@1000022;1</t>
+  </si>
+  <si>
+    <t>1;150000@1023008;1@1000018;5@1000022;1</t>
+  </si>
+  <si>
+    <t>1;150000@1024008;1@1000018;5@1000022;1</t>
+  </si>
+  <si>
+    <t>1;150000@1025008;1@1000018;5@1000022;1</t>
+  </si>
+  <si>
+    <t>1;100000@1021009;1@1000018;10@1000022;1@1010033;1</t>
+  </si>
+  <si>
+    <t>1;150000@1022009;1@1000018;10@1000022;1@1010033;1</t>
+  </si>
+  <si>
+    <t>1;200000@1023009;1@1000018;10@1000022;1@1010033;1</t>
+  </si>
+  <si>
+    <t>1;200000@1024009;1@1000018;10@1000022;1@1010033;1</t>
+  </si>
+  <si>
+    <t>1;200000@1025009;1@1000018;10@1000022;1@1010033;1</t>
   </si>
 </sst>
 </file>
@@ -5832,7 +5862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5870,9 +5900,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="1672" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="1672" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="1672" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8017,8 +8044,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8031,10 +8058,11 @@
     <col min="9" max="10" width="14.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="45.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="15" width="14.125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
     <col min="17" max="18" width="14.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="49.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="53" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8251,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L6" s="8">
         <v>220</v>
@@ -8263,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="P6" s="8">
         <v>310</v>
@@ -8274,8 +8302,8 @@
       <c r="R6" s="7">
         <v>0</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>39</v>
+      <c r="S6" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8284,13 +8312,13 @@
         <v>10002</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8">
         <v>120001</v>
@@ -8305,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L7" s="8">
         <v>220</v>
@@ -8317,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P7" s="8">
         <v>310</v>
@@ -8328,8 +8356,8 @@
       <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>39</v>
+      <c r="S7" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8338,13 +8366,13 @@
         <v>10003</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8">
         <v>130001</v>
@@ -8359,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L8" s="8">
         <v>220</v>
@@ -8371,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P8" s="8">
         <v>310</v>
@@ -8382,8 +8410,8 @@
       <c r="R8" s="7">
         <v>0</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>47</v>
+      <c r="S8" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,13 +8420,13 @@
         <v>10004</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8">
         <v>140001</v>
@@ -8413,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L9" s="8">
         <v>220</v>
@@ -8425,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P9" s="8">
         <v>310</v>
@@ -8436,8 +8464,8 @@
       <c r="R9" s="7">
         <v>0</v>
       </c>
-      <c r="S9" s="15" t="s">
-        <v>47</v>
+      <c r="S9" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8452,7 +8480,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" s="8">
         <v>150001</v>
@@ -8467,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L10" s="8">
         <v>220</v>
@@ -8479,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P10" s="8">
         <v>310</v>
@@ -8490,8 +8518,8 @@
       <c r="R10" s="7">
         <v>0</v>
       </c>
-      <c r="S10" s="15" t="s">
-        <v>47</v>
+      <c r="S10" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8515,31 +8543,30 @@
         <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>100203</v>
+        <v>100603</v>
       </c>
       <c r="J11" s="7">
-        <f>N11*5</f>
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="8">
         <v>220</v>
       </c>
       <c r="M11" s="7">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="N11" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="8">
         <v>310</v>
       </c>
       <c r="Q11" s="7">
-        <v>100203</v>
+        <v>100303</v>
       </c>
       <c r="R11" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="S11" s="13"/>
     </row>
@@ -8549,13 +8576,13 @@
         <v>20002</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="8">
         <v>220001</v>
@@ -8564,31 +8591,30 @@
         <v>120</v>
       </c>
       <c r="I12" s="7">
-        <v>100203</v>
+        <v>100603</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" ref="J12:J15" si="0">N12*5</f>
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="8">
         <v>220</v>
       </c>
       <c r="M12" s="7">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="N12" s="7">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="8">
         <v>310</v>
       </c>
       <c r="Q12" s="7">
-        <v>100203</v>
+        <v>100303</v>
       </c>
       <c r="R12" s="7">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="S12" s="13"/>
     </row>
@@ -8598,13 +8624,13 @@
         <v>20003</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="8">
         <v>230001</v>
@@ -8613,31 +8639,30 @@
         <v>120</v>
       </c>
       <c r="I13" s="7">
-        <v>100203</v>
+        <v>100603</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="8">
         <v>220</v>
       </c>
       <c r="M13" s="7">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="N13" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="8">
         <v>310</v>
       </c>
       <c r="Q13" s="7">
-        <v>100203</v>
+        <v>100303</v>
       </c>
       <c r="R13" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S13" s="13"/>
     </row>
@@ -8647,13 +8672,13 @@
         <v>20004</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14" s="8">
         <v>240001</v>
@@ -8662,31 +8687,30 @@
         <v>120</v>
       </c>
       <c r="I14" s="7">
-        <v>100203</v>
+        <v>100603</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>625</v>
+        <v>42</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="8">
         <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="N14" s="7">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="8">
         <v>310</v>
       </c>
       <c r="Q14" s="7">
-        <v>100203</v>
+        <v>100303</v>
       </c>
       <c r="R14" s="7">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="S14" s="13"/>
     </row>
@@ -8702,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8">
         <v>250001</v>
@@ -8711,31 +8735,30 @@
         <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>100203</v>
+        <v>100603</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="0"/>
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="8">
         <v>220</v>
       </c>
       <c r="M15" s="7">
-        <v>100403</v>
+        <v>100203</v>
       </c>
       <c r="N15" s="7">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="8">
         <v>310</v>
       </c>
       <c r="Q15" s="7">
-        <v>100203</v>
+        <v>100303</v>
       </c>
       <c r="R15" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="S15" s="13"/>
     </row>

--- a/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684DD1AA-58CB-4194-95CD-B21C07B63D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CCE3CF-6416-4CA0-A971-DF0119420A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8044,8 +8044,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11:J15"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8563,7 +8563,7 @@
         <v>310</v>
       </c>
       <c r="Q11" s="7">
-        <v>100303</v>
+        <v>100403</v>
       </c>
       <c r="R11" s="7">
         <v>25</v>
@@ -8611,7 +8611,7 @@
         <v>310</v>
       </c>
       <c r="Q12" s="7">
-        <v>100303</v>
+        <v>100403</v>
       </c>
       <c r="R12" s="7">
         <v>35</v>
@@ -8659,7 +8659,7 @@
         <v>310</v>
       </c>
       <c r="Q13" s="7">
-        <v>100303</v>
+        <v>100403</v>
       </c>
       <c r="R13" s="7">
         <v>50</v>
@@ -8707,7 +8707,7 @@
         <v>310</v>
       </c>
       <c r="Q14" s="7">
-        <v>100303</v>
+        <v>100403</v>
       </c>
       <c r="R14" s="7">
         <v>70</v>
@@ -8755,7 +8755,7 @@
         <v>310</v>
       </c>
       <c r="Q15" s="7">
-        <v>100303</v>
+        <v>100403</v>
       </c>
       <c r="R15" s="7">
         <v>100</v>

--- a/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShouJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CCE3CF-6416-4CA0-A971-DF0119420A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF565D-33B3-42C8-9817-CFDA809D94F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8044,8 +8044,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8540,7 +8540,7 @@
         <v>210001</v>
       </c>
       <c r="H11" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
         <v>100603</v>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="8">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>100203</v>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="8">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7">
         <v>100403</v>
@@ -8588,7 +8588,7 @@
         <v>220001</v>
       </c>
       <c r="H12" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
         <v>100603</v>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="8">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>100203</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="8">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="7">
         <v>100403</v>
@@ -8636,7 +8636,7 @@
         <v>230001</v>
       </c>
       <c r="H13" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
         <v>100603</v>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="8">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>100203</v>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="8">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7">
         <v>100403</v>
@@ -8684,7 +8684,7 @@
         <v>240001</v>
       </c>
       <c r="H14" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
         <v>100603</v>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="8">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>100203</v>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="8">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7">
         <v>100403</v>
@@ -8732,7 +8732,7 @@
         <v>250001</v>
       </c>
       <c r="H15" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7">
         <v>100603</v>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="8">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>100203</v>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="8">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7">
         <v>100403</v>
